--- a/assets/docs/Octank-SDP-Dashboard.xlsx
+++ b/assets/docs/Octank-SDP-Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rupeshti/Amazon WorkDocs Drive/My Documents/Learning/Awesome Builders/awsome-builder-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC719E-D362-2A44-B8C0-E3EDAC7BE63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE4DB8A-37A6-3E4E-97CE-7A99B30462B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76800" yWindow="3600" windowWidth="28800" windowHeight="18000" xr2:uid="{2B5D0256-8C01-6348-B3F2-30F3F9BCDB37}"/>
+    <workbookView xWindow="3840" yWindow="920" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2B5D0256-8C01-6348-B3F2-30F3F9BCDB37}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="2" r:id="rId1"/>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>Minimal</t>
-  </si>
-  <si>
-    <t>Analytics Cost</t>
-  </si>
-  <si>
-    <t>Approx. total Cost (pre negotiation + pre EDP)</t>
   </si>
   <si>
     <r>
@@ -307,6 +301,12 @@
   <si>
     <t>Max lag to process an event (capture, enrich, notify &amp; store) - must be &lt;300s</t>
   </si>
+  <si>
+    <t>Approx. total Cost</t>
+  </si>
+  <si>
+    <t>Monitoring ( Cloud Watch )</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +320,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,6 +487,13 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -826,7 +833,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -962,9 +969,6 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -989,6 +993,10 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1311,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C94ACB-54C4-1740-92CE-BD45BAE1FFE5}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1340,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="50" x14ac:dyDescent="0.2">
@@ -1340,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.2">
@@ -1383,23 +1391,23 @@
       <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="63">
-        <f>B5-B3</f>
-        <v>-299</v>
-      </c>
-      <c r="C6" s="63">
-        <f>C5-C3</f>
-        <v>-29.839999999999975</v>
+      <c r="B6" s="71">
+        <f>B3-B5</f>
+        <v>299</v>
+      </c>
+      <c r="C6" s="71">
+        <f>C3-C5</f>
+        <v>29.839999999999975</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="25" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="63">
         <v>800000</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <v>299999999.69999999</v>
       </c>
     </row>
@@ -1407,11 +1415,11 @@
       <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <f>(B7/B5)/(B11-1)</f>
         <v>16326.530612244898</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <f>(C7/C5)/(C11-1)</f>
         <v>7452.7051257718504</v>
       </c>
@@ -1420,11 +1428,11 @@
       <c r="A9" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <f>B7/B3</f>
         <v>2666.6666666666665</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <f>C7/C3</f>
         <v>999999.99899999995</v>
       </c>
@@ -1444,10 +1452,10 @@
       <c r="A11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="65">
         <v>50</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="66">
         <v>150</v>
       </c>
     </row>
@@ -1455,10 +1463,10 @@
       <c r="A12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="67">
         <v>1</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="66">
         <v>4</v>
       </c>
     </row>
@@ -1466,10 +1474,10 @@
       <c r="A13" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1477,10 +1485,10 @@
       <c r="A14" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="65">
         <v>10</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="68">
         <v>20</v>
       </c>
     </row>
@@ -1488,10 +1496,10 @@
       <c r="A15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="69">
         <v>2.62</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="69">
         <v>2.62</v>
       </c>
     </row>
@@ -1499,10 +1507,10 @@
       <c r="A16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1510,10 +1518,10 @@
       <c r="A17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="69">
         <v>1.6</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="69">
         <v>40</v>
       </c>
     </row>
@@ -1521,10 +1529,10 @@
       <c r="A18" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="69" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1532,10 +1540,10 @@
       <c r="A19" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="69" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1543,10 +1551,10 @@
       <c r="A20" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="69" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1554,25 +1562,25 @@
       <c r="A21" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="69" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="400" x14ac:dyDescent="0.2">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1584,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9F418C-68A9-684B-ACBD-D258A69545CE}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1631,7 +1639,7 @@
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
@@ -1652,12 +1660,12 @@
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="72">
         <v>150</v>
       </c>
     </row>
@@ -1672,7 +1680,7 @@
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>37</v>
@@ -1695,7 +1703,7 @@
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="42">
@@ -1722,22 +1730,22 @@
         <v>41</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="46">
-        <f>12884.7*12</f>
-        <v>154616.40000000002</v>
+        <f>175*12</f>
+        <v>2100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="50">
@@ -1745,9 +1753,9 @@
         <v>892760.32799999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="51">
@@ -1755,13 +1763,13 @@
         <v>740991.07223999989</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1797,7 +1805,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1827,13 +1835,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="27">
         <v>86400</v>
@@ -1841,7 +1849,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="27">
         <v>1024</v>
@@ -1849,7 +1857,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="28">
         <v>60</v>
@@ -1857,7 +1865,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="28">
         <v>1000000</v>
@@ -1865,7 +1873,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="29">
         <f>B4*B5/POWER(B3,2)</f>
@@ -1874,7 +1882,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="29">
         <v>2000000</v>
@@ -1882,7 +1890,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="31">
         <f>B2*B5/1000000000</f>
@@ -1891,18 +1899,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="38">
         <f>(B4*B5*B2)/(POWER(B3,4))</f>
@@ -1912,7 +1920,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="38">
         <f>B11*30</f>
@@ -1922,7 +1930,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="38">
         <f>B12*12/2</f>
@@ -1932,7 +1940,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="38">
         <f>B12*12</f>
@@ -1945,7 +1953,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="38">
         <f>B12*18</f>
@@ -1958,7 +1966,7 @@
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="39">
         <v>3525000</v>
